--- a/cypress/downloads/resultsApproval_MCP_NON_FO.xlsx
+++ b/cypress/downloads/resultsApproval_MCP_NON_FO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-03T10:07:23.489Z</v>
+        <v>2025-06-17T04:36:34.363Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,34 +432,12 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-05-03T10:07:23.490Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User ID Input</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-05-03T10:07:25.651Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve">Passworhasben </v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-05-03T10:07:25.868Z</v>
+        <v>2025-06-17T04:36:34.364Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_MCP_NON_FO.xlsx
+++ b/cypress/downloads/resultsApproval_MCP_NON_FO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-17T04:36:34.363Z</v>
+        <v>2025-06-18T01:36:13.037Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,12 +432,34 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-06-17T04:36:34.364Z</v>
+        <v>2025-06-18T01:36:13.037Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User ID Input</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-06-18T01:36:14.294Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">Passworhasben </v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-06-18T01:36:14.514Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>